--- a/lib/vendor/phpoffice/phpspreadsheet/tests/data/Reader/XLSX/urlImage.xlsx
+++ b/lib/vendor/phpoffice/phpspreadsheet/tests/data/Reader/XLSX/urlImage.xlsx
@@ -100,7 +100,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="https://www.globalipmanager.com/DataFiles/Pics/20/Berniaga.comahp2.jpg">
+        <xdr:cNvPr id="2" name="Picture 6" descr="https://phpspreadsheet.readthedocs.io/en/latest/topics/images/01-03-filter-icon-1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B7E983-F0D8-3C49-8165-1415287648F3}"/>
